--- a/Project Related Files/Backlogs/Sprint4_Backlog_Template.xlsx
+++ b/Project Related Files/Backlogs/Sprint4_Backlog_Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Elshazly/Data/team-xxx/Grades, Backlogs &amp; Estimation Reports/Backlogs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Elshazly/Data/team-xxx/Project Related Files/Backlogs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49CA4D66-EEAB-884E-B987-9AF621C27BF5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E714576-8A41-0848-9289-7DDFC910C3E3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,37 +73,37 @@
     <t>dareen</t>
   </si>
   <si>
-    <t>As a user I should be able to create a project through a (form)</t>
-  </si>
-  <si>
-    <t>As a user I should be able to naviagte the app through (navigation bar)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a user I should be able to access about us page </t>
-  </si>
-  <si>
     <t>As a user I should be able to see slots available</t>
   </si>
   <si>
-    <t xml:space="preserve">As a user I should be able to view the projects available </t>
-  </si>
-  <si>
-    <t>As a user I should be able to get a welcome page when I open the website</t>
-  </si>
-  <si>
-    <t>As a user I should be able to view the project progress bar</t>
-  </si>
-  <si>
-    <t>As an admin I should be able to access the description posted by the partner</t>
-  </si>
-  <si>
-    <t>As a partner I should be able to choose a category for my project</t>
-  </si>
-  <si>
-    <t>As a partner I should be able to enter extra attributes after I choose category</t>
-  </si>
-  <si>
-    <t>As a partner I should be able to define project required skills with a set of attributes (Time, skills, etc…..)</t>
+    <t>As an admin I should be able to delete a member</t>
+  </si>
+  <si>
+    <t>As a user I should be able to get all members</t>
+  </si>
+  <si>
+    <t>As a user I should be able to get all partners</t>
+  </si>
+  <si>
+    <t>As a user I should be able to get all consultancys</t>
+  </si>
+  <si>
+    <t>AS a user I should be able to get all slots</t>
+  </si>
+  <si>
+    <t>As an admin i should be able to delete a project</t>
+  </si>
+  <si>
+    <t>As a user I should be able to get projects</t>
+  </si>
+  <si>
+    <t>as an Admin I should be able to delete slots</t>
+  </si>
+  <si>
+    <t>As a lifecoach I should be able to add slot</t>
+  </si>
+  <si>
+    <t>As a user I should be able to add projects</t>
   </si>
 </sst>
 </file>
@@ -532,7 +532,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -570,7 +570,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C2" s="3">
         <v>3</v>
@@ -590,7 +590,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C3" s="3">
         <v>3</v>
@@ -610,7 +610,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C4" s="3">
         <v>4</v>
@@ -630,7 +630,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C5" s="3">
         <v>3</v>
@@ -649,8 +649,8 @@
       <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>20</v>
+      <c r="B6" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C6" s="3">
         <v>4</v>
@@ -670,7 +670,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C7" s="3">
         <v>5</v>
@@ -710,7 +710,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C9" s="3">
         <v>3</v>
@@ -730,7 +730,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="3">
         <v>5</v>
@@ -750,7 +750,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C11" s="3">
         <v>3</v>
@@ -770,7 +770,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C12" s="3">
         <v>3</v>
